--- a/medicine/Pharmacie/Dihydropyridine/Dihydropyridine.xlsx
+++ b/medicine/Pharmacie/Dihydropyridine/Dihydropyridine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La dihydropyridine ou dihydroazine est un composé organique dérivé de la pyridine. Elle est en effet constituée d'une hétérocycle à 6 atomes dont un atome d'azote (et 5 de carbone) mais seulement partiellement insaturé, avec seulement deux liaisons doubles (contre 3 pour la pyridine).
@@ -515,17 +527,92 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Mode d'action
-Les dihydropyridines bloquent l'influx des ions calcium dans les cellules musculaires lisses des artères coronaires et périphériques, empêchant ainsi la contraction de ces vaisseaux. Elles sont ainsi utilisées en tant qu'antihypertenseurs.
+          <t>Mode d'action</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les dihydropyridines bloquent l'influx des ions calcium dans les cellules musculaires lisses des artères coronaires et périphériques, empêchant ainsi la contraction de ces vaisseaux. Elles sont ainsi utilisées en tant qu'antihypertenseurs.
 Elles agissent de la même façon sur le muscle cardiaque, mais leur effet vasculaire est bien plus important (d'autres inhibiteurs calciques comme le vérapamil ou le diltiazem ont en revanche une action préférentielle sur le cœur).
-Effets indésirables
-Les effets indésirables les plus fréquents de cette classe de médicaments sont :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Dihydropyridine</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dihydropyridine</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Médicaments</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Effets indésirables</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les effets indésirables les plus fréquents de cette classe de médicaments sont :
 des troubles liés à la vasodilatation périphérique : céphalées, vertiges, œdèmes des chevilles, hypotension artérielle.
 une tachycardie réflexe.
 une hyperplasie gingivale.
-Des effets hépatiques et des syndromes parkinsoniens[2] ont également été observés.
-Principes actifs de cette classe
-amlodipine
+Des effets hépatiques et des syndromes parkinsoniens ont également été observés.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Dihydropyridine</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dihydropyridine</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Médicaments</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Principes actifs de cette classe</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>amlodipine
 barnidipine
 clévidipine
 félodipine
